--- a/LTC6813/LTC6813 Summary.xlsx
+++ b/LTC6813/LTC6813 Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Documents\WFR\Custom BMS\Firmware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Documents\WFR\Custom BMS\Custom-BMS_25\LTC6813\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB92C891-97F3-4482-9C1A-76D8E2E7763F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39536585-3953-4D79-BBB3-96C29345D6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="872">
   <si>
     <t>Register</t>
   </si>
@@ -2135,9 +2135,6 @@
   </si>
   <si>
     <t>PS[x]</t>
-  </si>
-  <si>
-    <t>Selects digital redundancy path</t>
   </si>
   <si>
     <t>Physical discharge timer enable</t>
@@ -2478,9 +2475,6 @@
     <t>Status register group diagnostic</t>
   </si>
   <si>
-    <t>ADCVSC</t>
-  </si>
-  <si>
     <t>CLRCELL</t>
   </si>
   <si>
@@ -2550,9 +2544,6 @@
     <t>0x054F</t>
   </si>
   <si>
-    <t>0x0567</t>
-  </si>
-  <si>
     <t>0x0711</t>
   </si>
   <si>
@@ -2665,6 +2656,38 @@
   </si>
   <si>
     <t>default all 1s!</t>
+  </si>
+  <si>
+    <t>ADCV</t>
+  </si>
+  <si>
+    <r>
+      <t>Selects digital redundancy path (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>0x0360</t>
   </si>
 </sst>
 </file>
@@ -2782,13 +2805,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3071,8 +3094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="K104" sqref="K104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3092,24 +3115,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="L1" s="11" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="L1" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -3278,7 +3301,7 @@
         <v>695</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>676</v>
@@ -3434,28 +3457,28 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
       <c r="L10" s="1" t="s">
         <v>692</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="N10" s="12" t="s">
-        <v>738</v>
-      </c>
-      <c r="O10" s="12"/>
+      <c r="N10" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="O10" s="13"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -3580,12 +3603,12 @@
         <v>702</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>738</v>
-      </c>
-      <c r="O13" s="12"/>
+        <v>870</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="O13" s="13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -3622,13 +3645,13 @@
         <v>74</v>
       </c>
       <c r="M14" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="N14" s="7" t="s">
         <v>705</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="O14" s="7" t="s">
         <v>706</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -3663,10 +3686,10 @@
         <v>75</v>
       </c>
       <c r="L15" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="M15" s="7" t="s">
         <v>708</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>709</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>685</v>
@@ -3707,10 +3730,10 @@
         <v>75</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="M16" s="7" t="s">
         <v>710</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>711</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>685</v>
@@ -3751,10 +3774,10 @@
         <v>75</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="M17" s="7" t="s">
         <v>712</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>713</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>685</v>
@@ -3765,10 +3788,10 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L18" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="M18" s="7" t="s">
         <v>714</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>715</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>685</v>
@@ -3778,23 +3801,23 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
       <c r="L19" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="M19" s="7" t="s">
         <v>716</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>717</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>685</v>
@@ -3835,16 +3858,16 @@
         <v>9</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="M20" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="N20" s="7" t="s">
         <v>719</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="O20" s="7" t="s">
         <v>720</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -3879,16 +3902,16 @@
         <v>110</v>
       </c>
       <c r="L21" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="M21" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="N21" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="O21" s="7" t="s">
         <v>724</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -3923,10 +3946,10 @@
         <v>122</v>
       </c>
       <c r="L22" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="M22" s="7" t="s">
         <v>726</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>727</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>685</v>
@@ -3970,7 +3993,7 @@
         <v>501</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N23" s="6" t="s">
         <v>685</v>
@@ -4014,13 +4037,13 @@
         <v>502</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="N24" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>729</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -4058,13 +4081,13 @@
         <v>503</v>
       </c>
       <c r="M25" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="N25" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="O25" s="7" t="s">
         <v>732</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -4096,44 +4119,44 @@
         <v>153</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="L26" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="M26" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="M26" s="7" t="s">
-        <v>735</v>
-      </c>
-      <c r="N26" s="12" t="s">
-        <v>738</v>
-      </c>
-      <c r="O26" s="12"/>
+      <c r="N26" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="O26" s="13"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L27" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="M27" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="M27" s="7" t="s">
+      <c r="N27" s="13" t="s">
         <v>737</v>
       </c>
-      <c r="N27" s="12" t="s">
-        <v>738</v>
-      </c>
-      <c r="O27" s="12"/>
+      <c r="O27" s="13"/>
     </row>
     <row r="28" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -4398,18 +4421,18 @@
       <c r="O36" s="4"/>
     </row>
     <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -4674,18 +4697,18 @@
       <c r="O45" s="4"/>
     </row>
     <row r="46" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
@@ -4950,18 +4973,18 @@
       <c r="O54" s="4"/>
     </row>
     <row r="55" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
@@ -5226,18 +5249,18 @@
       <c r="O63" s="4"/>
     </row>
     <row r="64" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
@@ -5502,18 +5525,18 @@
       <c r="O72" s="4"/>
     </row>
     <row r="73" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
@@ -5778,18 +5801,18 @@
       <c r="O81" s="4"/>
     </row>
     <row r="82" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
@@ -6037,7 +6060,7 @@
         <v>501</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>503</v>
@@ -6054,18 +6077,18 @@
       <c r="O90" s="4"/>
     </row>
     <row r="91" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
@@ -6330,18 +6353,18 @@
       <c r="O99" s="4"/>
     </row>
     <row r="100" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
@@ -6450,8 +6473,8 @@
       <c r="J103" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="K103" s="13" t="s">
-        <v>871</v>
+      <c r="K103" s="11" t="s">
+        <v>868</v>
       </c>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
@@ -6609,18 +6632,18 @@
       <c r="O108" s="4"/>
     </row>
     <row r="109" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A109" s="11" t="s">
+      <c r="A109" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="11"/>
-      <c r="I109" s="11"/>
-      <c r="J109" s="11"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
@@ -6859,18 +6882,18 @@
       </c>
     </row>
     <row r="118" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A118" s="11" t="s">
-        <v>841</v>
-      </c>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="11"/>
-      <c r="I118" s="11"/>
-      <c r="J118" s="11"/>
+      <c r="A118" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
@@ -6906,194 +6929,194 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
   </sheetData>
@@ -7120,6 +7143,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7127,8 +7151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C9167C-FF39-4CDD-9CC0-7BECFC76D55A}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7141,30 +7165,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>741</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>824</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>743</v>
-      </c>
       <c r="C2" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>685</v>
@@ -7175,13 +7199,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>745</v>
-      </c>
       <c r="C3" s="9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>685</v>
@@ -7192,13 +7216,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>747</v>
-      </c>
       <c r="C4" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>685</v>
@@ -7209,13 +7233,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>685</v>
@@ -7226,13 +7250,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>685</v>
@@ -7243,13 +7267,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>685</v>
@@ -7260,13 +7284,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>685</v>
@@ -7277,13 +7301,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>685</v>
@@ -7294,13 +7318,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>685</v>
@@ -7311,13 +7335,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>685</v>
@@ -7328,13 +7352,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>685</v>
@@ -7345,13 +7369,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>685</v>
@@ -7362,13 +7386,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>685</v>
@@ -7379,13 +7403,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>685</v>
@@ -7396,13 +7420,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>685</v>
@@ -7413,13 +7437,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>685</v>
@@ -7430,13 +7454,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>685</v>
@@ -7447,13 +7471,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>685</v>
@@ -7464,13 +7488,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>685</v>
@@ -7481,13 +7505,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>796</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>797</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>685</v>
@@ -7498,13 +7522,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="9" t="s">
         <v>799</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>800</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>685</v>
@@ -7515,47 +7539,47 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>823</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>825</v>
-      </c>
       <c r="E23" s="9" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>827</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>870</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>685</v>
@@ -7566,13 +7590,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>685</v>
@@ -7583,45 +7607,47 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>809</v>
+        <v>869</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>833</v>
-      </c>
-      <c r="D28" s="9"/>
+        <v>871</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>685</v>
+      </c>
       <c r="E28" s="6" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>685</v>
@@ -7632,13 +7658,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>685</v>
@@ -7649,13 +7675,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>685</v>
@@ -7669,10 +7695,10 @@
         <v>72</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>685</v>
@@ -7683,13 +7709,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="C33" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>685</v>

--- a/LTC6813/LTC6813 Summary.xlsx
+++ b/LTC6813/LTC6813 Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Documents\WFR\Custom BMS\Custom-BMS_25\LTC6813\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39536585-3953-4D79-BBB3-96C29345D6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2911D511-01D5-4F42-9E26-140B79AFC4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registers" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="807">
   <si>
     <t>Register</t>
   </si>
@@ -919,300 +919,6 @@
     <t>C12V[8]</t>
   </si>
   <si>
-    <t>Cell Voltage Register Group E</t>
-  </si>
-  <si>
-    <t>C13V[7]</t>
-  </si>
-  <si>
-    <t>C13V[6]</t>
-  </si>
-  <si>
-    <t>C13V[5]</t>
-  </si>
-  <si>
-    <t>C13V[4]</t>
-  </si>
-  <si>
-    <t>C13V[3]</t>
-  </si>
-  <si>
-    <t>C13V[2]</t>
-  </si>
-  <si>
-    <t>C13V[1]</t>
-  </si>
-  <si>
-    <t>C13V[0]</t>
-  </si>
-  <si>
-    <t>C13V[15]</t>
-  </si>
-  <si>
-    <t>C13V[14]</t>
-  </si>
-  <si>
-    <t>C13V[13]</t>
-  </si>
-  <si>
-    <t>C13V[12]</t>
-  </si>
-  <si>
-    <t>C13V[11]</t>
-  </si>
-  <si>
-    <t>C13V[10]</t>
-  </si>
-  <si>
-    <t>C13V[9]</t>
-  </si>
-  <si>
-    <t>C13V[8]</t>
-  </si>
-  <si>
-    <t>C14V[7]</t>
-  </si>
-  <si>
-    <t>C14V[6]</t>
-  </si>
-  <si>
-    <t>C14V[5]</t>
-  </si>
-  <si>
-    <t>C14V[4]</t>
-  </si>
-  <si>
-    <t>C14V[3]</t>
-  </si>
-  <si>
-    <t>C14V[2]</t>
-  </si>
-  <si>
-    <t>C14V[1]</t>
-  </si>
-  <si>
-    <t>C14V[0]</t>
-  </si>
-  <si>
-    <t>C14V[15]</t>
-  </si>
-  <si>
-    <t>C14V[14]</t>
-  </si>
-  <si>
-    <t>C14V[13]</t>
-  </si>
-  <si>
-    <t>C14V[12]</t>
-  </si>
-  <si>
-    <t>C14V[11]</t>
-  </si>
-  <si>
-    <t>C14V[10]</t>
-  </si>
-  <si>
-    <t>C14V[9]</t>
-  </si>
-  <si>
-    <t>C14V[8]</t>
-  </si>
-  <si>
-    <t>C15V[7]</t>
-  </si>
-  <si>
-    <t>C15V[6]</t>
-  </si>
-  <si>
-    <t>C15V[5]</t>
-  </si>
-  <si>
-    <t>C15V[4]</t>
-  </si>
-  <si>
-    <t>C15V[3]</t>
-  </si>
-  <si>
-    <t>C15V[2]</t>
-  </si>
-  <si>
-    <t>C15V[1]</t>
-  </si>
-  <si>
-    <t>C15V[0]</t>
-  </si>
-  <si>
-    <t>C15V[15]</t>
-  </si>
-  <si>
-    <t>C15V[14]</t>
-  </si>
-  <si>
-    <t>C15V[13]</t>
-  </si>
-  <si>
-    <t>C15V[12]</t>
-  </si>
-  <si>
-    <t>C15V[11]</t>
-  </si>
-  <si>
-    <t>C15V[10]</t>
-  </si>
-  <si>
-    <t>C15V[9]</t>
-  </si>
-  <si>
-    <t>C15V[8]</t>
-  </si>
-  <si>
-    <t>C16V[7]</t>
-  </si>
-  <si>
-    <t>C16V[6]</t>
-  </si>
-  <si>
-    <t>C16V[5]</t>
-  </si>
-  <si>
-    <t>C16V[4]</t>
-  </si>
-  <si>
-    <t>C16V[3]</t>
-  </si>
-  <si>
-    <t>C16V[2]</t>
-  </si>
-  <si>
-    <t>C16V[1]</t>
-  </si>
-  <si>
-    <t>C16V[0]</t>
-  </si>
-  <si>
-    <t>C16V[15]</t>
-  </si>
-  <si>
-    <t>C16V[14]</t>
-  </si>
-  <si>
-    <t>C16V[13]</t>
-  </si>
-  <si>
-    <t>C16V[12]</t>
-  </si>
-  <si>
-    <t>C16V[11]</t>
-  </si>
-  <si>
-    <t>C16V[10]</t>
-  </si>
-  <si>
-    <t>C16V[9]</t>
-  </si>
-  <si>
-    <t>C16V[8]</t>
-  </si>
-  <si>
-    <t>C17V[7]</t>
-  </si>
-  <si>
-    <t>C17V[6]</t>
-  </si>
-  <si>
-    <t>C17V[5]</t>
-  </si>
-  <si>
-    <t>C17V[4]</t>
-  </si>
-  <si>
-    <t>C17V[3]</t>
-  </si>
-  <si>
-    <t>C17V[2]</t>
-  </si>
-  <si>
-    <t>C17V[1]</t>
-  </si>
-  <si>
-    <t>C17V[0]</t>
-  </si>
-  <si>
-    <t>C17V[15]</t>
-  </si>
-  <si>
-    <t>C17V[14]</t>
-  </si>
-  <si>
-    <t>C17V[13]</t>
-  </si>
-  <si>
-    <t>C17V[12]</t>
-  </si>
-  <si>
-    <t>C17V[11]</t>
-  </si>
-  <si>
-    <t>C17V[10]</t>
-  </si>
-  <si>
-    <t>C17V[9]</t>
-  </si>
-  <si>
-    <t>C17V[8]</t>
-  </si>
-  <si>
-    <t>C18V[7]</t>
-  </si>
-  <si>
-    <t>C18V[6]</t>
-  </si>
-  <si>
-    <t>C18V[5]</t>
-  </si>
-  <si>
-    <t>C18V[4]</t>
-  </si>
-  <si>
-    <t>C18V[3]</t>
-  </si>
-  <si>
-    <t>C18V[2]</t>
-  </si>
-  <si>
-    <t>C18V[1]</t>
-  </si>
-  <si>
-    <t>C18V[0]</t>
-  </si>
-  <si>
-    <t>C18V[15]</t>
-  </si>
-  <si>
-    <t>C18V[14]</t>
-  </si>
-  <si>
-    <t>C18V[13]</t>
-  </si>
-  <si>
-    <t>C18V[12]</t>
-  </si>
-  <si>
-    <t>C18V[11]</t>
-  </si>
-  <si>
-    <t>C18V[10]</t>
-  </si>
-  <si>
-    <t>C18V[9]</t>
-  </si>
-  <si>
-    <t>C18V[8]</t>
-  </si>
-  <si>
-    <t>Cell Voltage Register Group F</t>
-  </si>
-  <si>
     <t>Status Register Group A</t>
   </si>
   <si>
@@ -1540,192 +1246,9 @@
     <t>THSD</t>
   </si>
   <si>
-    <t>S Control Register Group</t>
-  </si>
-  <si>
-    <t>SCTRL0</t>
-  </si>
-  <si>
-    <t>SCTRL1</t>
-  </si>
-  <si>
-    <t>SCTRL2</t>
-  </si>
-  <si>
-    <t>SCTRL3</t>
-  </si>
-  <si>
-    <t>SCTRL4</t>
-  </si>
-  <si>
-    <t>SCTRL5</t>
-  </si>
-  <si>
-    <t>SCTL2[3]</t>
-  </si>
-  <si>
-    <t>SCTL2[2]</t>
-  </si>
-  <si>
-    <t>SCTL2[1]</t>
-  </si>
-  <si>
-    <t>SCTL2[0]</t>
-  </si>
-  <si>
-    <t>SCTL1[3]</t>
-  </si>
-  <si>
-    <t>SCTL1[2]</t>
-  </si>
-  <si>
-    <t>SCTL1[1]</t>
-  </si>
-  <si>
-    <t>SCTL1[0]</t>
-  </si>
-  <si>
-    <t>SCTL4[0]</t>
-  </si>
-  <si>
-    <t>SCTL4[3]</t>
-  </si>
-  <si>
-    <t>SCTL4[2]</t>
-  </si>
-  <si>
-    <t>SCTL4[1]</t>
-  </si>
-  <si>
-    <t>SCTL3[3]</t>
-  </si>
-  <si>
-    <t>SCTL3[2]</t>
-  </si>
-  <si>
-    <t>SCTL3[1]</t>
-  </si>
-  <si>
-    <t>SCTL3[0]</t>
-  </si>
-  <si>
-    <t>SCTL6[3]</t>
-  </si>
-  <si>
-    <t>SCTL6[2]</t>
-  </si>
-  <si>
-    <t>SCTL6[1]</t>
-  </si>
-  <si>
-    <t>SCTL6[0]</t>
-  </si>
-  <si>
-    <t>SCTL5[3]</t>
-  </si>
-  <si>
-    <t>SCTL5[2]</t>
-  </si>
-  <si>
-    <t>SCTL5[1]</t>
-  </si>
-  <si>
-    <t>SCTL5[0]</t>
-  </si>
-  <si>
-    <t>SCTL8[3]</t>
-  </si>
-  <si>
-    <t>SCTL8[2]</t>
-  </si>
-  <si>
-    <t>SCTL8[1]</t>
-  </si>
-  <si>
-    <t>SCTL8[0]</t>
-  </si>
-  <si>
-    <t>SCTL7[3]</t>
-  </si>
-  <si>
-    <t>SCTL7[2]</t>
-  </si>
-  <si>
-    <t>SCTL7[1]</t>
-  </si>
-  <si>
-    <t>SCTL7[0]</t>
-  </si>
-  <si>
-    <t>SCTL10[3]</t>
-  </si>
-  <si>
-    <t>SCTL10[2]</t>
-  </si>
-  <si>
-    <t>SCTL10[1]</t>
-  </si>
-  <si>
-    <t>SCTL10[0]</t>
-  </si>
-  <si>
-    <t>SCTL9[3]</t>
-  </si>
-  <si>
-    <t>SCTL9[2]</t>
-  </si>
-  <si>
-    <t>SCTL9[1]</t>
-  </si>
-  <si>
-    <t>SCTL9[0]</t>
-  </si>
-  <si>
-    <t>SCTL12[3]</t>
-  </si>
-  <si>
-    <t>SCTL12[2]</t>
-  </si>
-  <si>
-    <t>SCTL12[1]</t>
-  </si>
-  <si>
-    <t>SCTL12[0]</t>
-  </si>
-  <si>
-    <t>SCTL11[3]</t>
-  </si>
-  <si>
-    <t>SCTL11[2]</t>
-  </si>
-  <si>
-    <t>SCTL11[1]</t>
-  </si>
-  <si>
-    <t>SCTL11[0]</t>
-  </si>
-  <si>
     <t>PWM Register Group</t>
   </si>
   <si>
-    <t>PSR0</t>
-  </si>
-  <si>
-    <t>PSR1</t>
-  </si>
-  <si>
-    <t>PSR2</t>
-  </si>
-  <si>
-    <t>PSR3</t>
-  </si>
-  <si>
-    <t>PSR4</t>
-  </si>
-  <si>
-    <t>PSR5</t>
-  </si>
-  <si>
     <t>PWM2[3]</t>
   </si>
   <si>
@@ -1870,9 +1393,6 @@
     <t>PWM11[0]</t>
   </si>
   <si>
-    <t>PWM/S Control Register Group B</t>
-  </si>
-  <si>
     <t>PWMR0</t>
   </si>
   <si>
@@ -1891,150 +1411,6 @@
     <t>PWMR5</t>
   </si>
   <si>
-    <t>PWM14[3]</t>
-  </si>
-  <si>
-    <t>PWM14[2]</t>
-  </si>
-  <si>
-    <t>PWM14[1]</t>
-  </si>
-  <si>
-    <t>PWM14[0]</t>
-  </si>
-  <si>
-    <t>PWM13[3]</t>
-  </si>
-  <si>
-    <t>PWM13[2]</t>
-  </si>
-  <si>
-    <t>PWM13[1]</t>
-  </si>
-  <si>
-    <t>PWM13[0]</t>
-  </si>
-  <si>
-    <t>PWM16[3]</t>
-  </si>
-  <si>
-    <t>PWM16[2]</t>
-  </si>
-  <si>
-    <t>PWM16[1]</t>
-  </si>
-  <si>
-    <t>PWM16[0]</t>
-  </si>
-  <si>
-    <t>PWM15[3]</t>
-  </si>
-  <si>
-    <t>PWM15[2]</t>
-  </si>
-  <si>
-    <t>PWM15[1]</t>
-  </si>
-  <si>
-    <t>PWM15[0]</t>
-  </si>
-  <si>
-    <t>PWM18[3]</t>
-  </si>
-  <si>
-    <t>PWM18[2]</t>
-  </si>
-  <si>
-    <t>PWM18[1]</t>
-  </si>
-  <si>
-    <t>PWM18[0]</t>
-  </si>
-  <si>
-    <t>PWM17[3]</t>
-  </si>
-  <si>
-    <t>PWM17[2]</t>
-  </si>
-  <si>
-    <t>PWM17[1]</t>
-  </si>
-  <si>
-    <t>PWM17[0]</t>
-  </si>
-  <si>
-    <t>SCTL14[3]</t>
-  </si>
-  <si>
-    <t>SCTL14[2]</t>
-  </si>
-  <si>
-    <t>SCTL14[1]</t>
-  </si>
-  <si>
-    <t>SCTL14[0]</t>
-  </si>
-  <si>
-    <t>SCTL13[3]</t>
-  </si>
-  <si>
-    <t>SCTL13[2]</t>
-  </si>
-  <si>
-    <t>SCTL13[1]</t>
-  </si>
-  <si>
-    <t>SCTL13[0]</t>
-  </si>
-  <si>
-    <t>SCTL16[3]</t>
-  </si>
-  <si>
-    <t>SCTL16[2]</t>
-  </si>
-  <si>
-    <t>SCTL16[1]</t>
-  </si>
-  <si>
-    <t>SCTL16[0]</t>
-  </si>
-  <si>
-    <t>SCTL15[3]</t>
-  </si>
-  <si>
-    <t>SCTL15[2]</t>
-  </si>
-  <si>
-    <t>SCTL15[1]</t>
-  </si>
-  <si>
-    <t>SCTL15[0]</t>
-  </si>
-  <si>
-    <t>SCTL18[3]</t>
-  </si>
-  <si>
-    <t>SCTL18[2]</t>
-  </si>
-  <si>
-    <t>SCTL18[1]</t>
-  </si>
-  <si>
-    <t>SCTL18[0]</t>
-  </si>
-  <si>
-    <t>SCTL17[3]</t>
-  </si>
-  <si>
-    <t>SCTL17[2]</t>
-  </si>
-  <si>
-    <t>SCTL17[1]</t>
-  </si>
-  <si>
-    <t>SCTL17[0]</t>
-  </si>
-  <si>
     <t>GPIOx</t>
   </si>
   <si>
@@ -2137,6 +1513,9 @@
     <t>PS[x]</t>
   </si>
   <si>
+    <t>Selects digital redundancy path</t>
+  </si>
+  <si>
     <t>Physical discharge timer enable</t>
   </si>
   <si>
@@ -2299,12 +1678,6 @@
     <t>RDCVD</t>
   </si>
   <si>
-    <t>RDCVE</t>
-  </si>
-  <si>
-    <t>RDCVF</t>
-  </si>
-  <si>
     <t>Reads cell voltage register group A</t>
   </si>
   <si>
@@ -2317,12 +1690,6 @@
     <t>Reads cell voltage register group D</t>
   </si>
   <si>
-    <t>Reads cell voltage register group E</t>
-  </si>
-  <si>
-    <t>Reads cell voltage register group F</t>
-  </si>
-  <si>
     <t>0x0004</t>
   </si>
   <si>
@@ -2335,12 +1702,6 @@
     <t>0x000A</t>
   </si>
   <si>
-    <t>0X0009</t>
-  </si>
-  <si>
-    <t>0X000B</t>
-  </si>
-  <si>
     <t>Read status register group A</t>
   </si>
   <si>
@@ -2359,73 +1720,22 @@
     <t>0x0012</t>
   </si>
   <si>
-    <t>Write S control register group</t>
-  </si>
-  <si>
-    <t>WRSCTRL</t>
-  </si>
-  <si>
     <t>Write PWM register group</t>
   </si>
   <si>
-    <t>Write PWM/S control register group B</t>
-  </si>
-  <si>
     <t>WRPWM</t>
   </si>
   <si>
-    <t>WRPSB</t>
-  </si>
-  <si>
-    <t>Read S control register group</t>
-  </si>
-  <si>
     <t>Read PWM register group</t>
   </si>
   <si>
-    <t>Read PWM/S control register group B</t>
-  </si>
-  <si>
-    <t>RDSCTRL</t>
-  </si>
-  <si>
     <t>RDPWM</t>
   </si>
   <si>
-    <t>RDPSB</t>
-  </si>
-  <si>
-    <t>0x0014</t>
-  </si>
-  <si>
     <t>0x0020</t>
   </si>
   <si>
-    <t>0x001C</t>
-  </si>
-  <si>
-    <t>0x0016</t>
-  </si>
-  <si>
     <t>0x0022</t>
-  </si>
-  <si>
-    <t>0x001E</t>
-  </si>
-  <si>
-    <t>STSCTRL</t>
-  </si>
-  <si>
-    <t>0x0019</t>
-  </si>
-  <si>
-    <t>CLRSCTRL</t>
-  </si>
-  <si>
-    <t>Clears S control register group</t>
-  </si>
-  <si>
-    <t>0x0018</t>
   </si>
   <si>
     <t>ADOW</t>
@@ -2457,9 +1767,6 @@
     </r>
   </si>
   <si>
-    <t>Begins S-pin pulsing (155us period)</t>
-  </si>
-  <si>
     <t>Open circuit test on C pins</t>
   </si>
   <si>
@@ -2508,9 +1815,6 @@
     <t>Enables S pins</t>
   </si>
   <si>
-    <t>ADSTAT</t>
-  </si>
-  <si>
     <t>Internal device parameter diagnostic</t>
   </si>
   <si>
@@ -2535,9 +1839,6 @@
     <t>Redundant self test commands</t>
   </si>
   <si>
-    <t>0x0568</t>
-  </si>
-  <si>
     <t>0x052F</t>
   </si>
   <si>
@@ -2559,12 +1860,6 @@
     <t>0x0029</t>
   </si>
   <si>
-    <t>ADAX</t>
-  </si>
-  <si>
-    <t>0x0566</t>
-  </si>
-  <si>
     <t>Auxiliary Register Group B</t>
   </si>
   <si>
@@ -2586,9 +1881,6 @@
     <t>AVBR5</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>REF[0]</t>
   </si>
   <si>
@@ -2637,9 +1929,6 @@
     <t>REF[15]</t>
   </si>
   <si>
-    <t>VREF2 measurement diagnostic</t>
-  </si>
-  <si>
     <t>Reads auxiliary register group B</t>
   </si>
   <si>
@@ -2652,42 +1941,535 @@
     <t>C3V[8]</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>default all 1s!</t>
+    <t>Auxiliary Register Group A</t>
+  </si>
+  <si>
+    <t>G1V[7]</t>
+  </si>
+  <si>
+    <t>G1V[6]</t>
+  </si>
+  <si>
+    <t>G1V[5]</t>
+  </si>
+  <si>
+    <t>G1V[4]</t>
+  </si>
+  <si>
+    <t>G1V[3]</t>
+  </si>
+  <si>
+    <t>G1V[2]</t>
+  </si>
+  <si>
+    <t>G1V[1]</t>
+  </si>
+  <si>
+    <t>G1V[0]</t>
+  </si>
+  <si>
+    <t>G1V[15]</t>
+  </si>
+  <si>
+    <t>G1V[14]</t>
+  </si>
+  <si>
+    <t>G1V[13]</t>
+  </si>
+  <si>
+    <t>G1V[12]</t>
+  </si>
+  <si>
+    <t>G1V[11]</t>
+  </si>
+  <si>
+    <t>G1V[10]</t>
+  </si>
+  <si>
+    <t>G1V[9]</t>
+  </si>
+  <si>
+    <t>G1V[8]</t>
+  </si>
+  <si>
+    <t>G2V[7]</t>
+  </si>
+  <si>
+    <t>G2V[6]</t>
+  </si>
+  <si>
+    <t>G2V[5]</t>
+  </si>
+  <si>
+    <t>G2V[4]</t>
+  </si>
+  <si>
+    <t>G2V[3]</t>
+  </si>
+  <si>
+    <t>G2V[2]</t>
+  </si>
+  <si>
+    <t>G2V[1]</t>
+  </si>
+  <si>
+    <t>G2V[0]</t>
+  </si>
+  <si>
+    <t>G2V[15]</t>
+  </si>
+  <si>
+    <t>G2V[14]</t>
+  </si>
+  <si>
+    <t>G2V[13]</t>
+  </si>
+  <si>
+    <t>G2V[12]</t>
+  </si>
+  <si>
+    <t>G2V[11]</t>
+  </si>
+  <si>
+    <t>G2V[10]</t>
+  </si>
+  <si>
+    <t>G2V[9]</t>
+  </si>
+  <si>
+    <t>G2V[8]</t>
+  </si>
+  <si>
+    <t>G3V[7]</t>
+  </si>
+  <si>
+    <t>G3V[6]</t>
+  </si>
+  <si>
+    <t>G3V[5]</t>
+  </si>
+  <si>
+    <t>G3V[4]</t>
+  </si>
+  <si>
+    <t>G3V[3]</t>
+  </si>
+  <si>
+    <t>G3V[2]</t>
+  </si>
+  <si>
+    <t>G3V[1]</t>
+  </si>
+  <si>
+    <t>G3V[0]</t>
+  </si>
+  <si>
+    <t>G3V[15]</t>
+  </si>
+  <si>
+    <t>G3V[14]</t>
+  </si>
+  <si>
+    <t>G3V[13]</t>
+  </si>
+  <si>
+    <t>G3V[12]</t>
+  </si>
+  <si>
+    <t>G3V[11]</t>
+  </si>
+  <si>
+    <t>G3V[10]</t>
+  </si>
+  <si>
+    <t>G3V[9]</t>
+  </si>
+  <si>
+    <t>G3V[8]</t>
+  </si>
+  <si>
+    <t>G4V[7]</t>
+  </si>
+  <si>
+    <t>G4V[6]</t>
+  </si>
+  <si>
+    <t>G4V[5]</t>
+  </si>
+  <si>
+    <t>G4V[4]</t>
+  </si>
+  <si>
+    <t>G4V[3]</t>
+  </si>
+  <si>
+    <t>G4V[2]</t>
+  </si>
+  <si>
+    <t>G4V[1]</t>
+  </si>
+  <si>
+    <t>G4V[0]</t>
+  </si>
+  <si>
+    <t>G4V[15]</t>
+  </si>
+  <si>
+    <t>G4V[14]</t>
+  </si>
+  <si>
+    <t>G4V[13]</t>
+  </si>
+  <si>
+    <t>G4V[12]</t>
+  </si>
+  <si>
+    <t>G4V[11]</t>
+  </si>
+  <si>
+    <t>G4V[10]</t>
+  </si>
+  <si>
+    <t>G4V[9]</t>
+  </si>
+  <si>
+    <t>G4V[8]</t>
+  </si>
+  <si>
+    <t>G5V[7]</t>
+  </si>
+  <si>
+    <t>G5V[6]</t>
+  </si>
+  <si>
+    <t>G5V[5]</t>
+  </si>
+  <si>
+    <t>G5V[4]</t>
+  </si>
+  <si>
+    <t>G5V[3]</t>
+  </si>
+  <si>
+    <t>G5V[2]</t>
+  </si>
+  <si>
+    <t>G5V[1]</t>
+  </si>
+  <si>
+    <t>G5V[0]</t>
+  </si>
+  <si>
+    <t>G5V[15]</t>
+  </si>
+  <si>
+    <t>G5V[14]</t>
+  </si>
+  <si>
+    <t>G5V[13]</t>
+  </si>
+  <si>
+    <t>G5V[12]</t>
+  </si>
+  <si>
+    <t>G5V[11]</t>
+  </si>
+  <si>
+    <t>G5V[10]</t>
+  </si>
+  <si>
+    <t>G5V[9]</t>
+  </si>
+  <si>
+    <t>G5V[8]</t>
+  </si>
+  <si>
+    <t>G6V[7]</t>
+  </si>
+  <si>
+    <t>G6V[6]</t>
+  </si>
+  <si>
+    <t>G6V[5]</t>
+  </si>
+  <si>
+    <t>G6V[4]</t>
+  </si>
+  <si>
+    <t>G6V[3]</t>
+  </si>
+  <si>
+    <t>G6V[2]</t>
+  </si>
+  <si>
+    <t>G6V[1]</t>
+  </si>
+  <si>
+    <t>G6V[0]</t>
+  </si>
+  <si>
+    <t>G6V[15]</t>
+  </si>
+  <si>
+    <t>G6V[14]</t>
+  </si>
+  <si>
+    <t>G6V[13]</t>
+  </si>
+  <si>
+    <t>G6V[12]</t>
+  </si>
+  <si>
+    <t>G6V[11]</t>
+  </si>
+  <si>
+    <t>G6V[10]</t>
+  </si>
+  <si>
+    <t>G6V[9]</t>
+  </si>
+  <si>
+    <t>G6V[8]</t>
+  </si>
+  <si>
+    <t>G7V[7]</t>
+  </si>
+  <si>
+    <t>G7V[6]</t>
+  </si>
+  <si>
+    <t>G7V[5]</t>
+  </si>
+  <si>
+    <t>G7V[4]</t>
+  </si>
+  <si>
+    <t>G7V[3]</t>
+  </si>
+  <si>
+    <t>G7V[2]</t>
+  </si>
+  <si>
+    <t>G7V[1]</t>
+  </si>
+  <si>
+    <t>G7V[0]</t>
+  </si>
+  <si>
+    <t>G7V[15]</t>
+  </si>
+  <si>
+    <t>G7V[14]</t>
+  </si>
+  <si>
+    <t>G7V[13]</t>
+  </si>
+  <si>
+    <t>G7V[12]</t>
+  </si>
+  <si>
+    <t>G7V[11]</t>
+  </si>
+  <si>
+    <t>G7V[10]</t>
+  </si>
+  <si>
+    <t>G7V[9]</t>
+  </si>
+  <si>
+    <t>G7V[8]</t>
+  </si>
+  <si>
+    <t>G8V[7]</t>
+  </si>
+  <si>
+    <t>G8V[6]</t>
+  </si>
+  <si>
+    <t>G8V[5]</t>
+  </si>
+  <si>
+    <t>G8V[4]</t>
+  </si>
+  <si>
+    <t>G8V[3]</t>
+  </si>
+  <si>
+    <t>G8V[2]</t>
+  </si>
+  <si>
+    <t>G8V[1]</t>
+  </si>
+  <si>
+    <t>G8V[0]</t>
+  </si>
+  <si>
+    <t>G8V[15]</t>
+  </si>
+  <si>
+    <t>G8V[14]</t>
+  </si>
+  <si>
+    <t>G8V[13]</t>
+  </si>
+  <si>
+    <t>G8V[12]</t>
+  </si>
+  <si>
+    <t>G8V[11]</t>
+  </si>
+  <si>
+    <t>G8V[10]</t>
+  </si>
+  <si>
+    <t>G8V[9]</t>
+  </si>
+  <si>
+    <t>G8V[8]</t>
+  </si>
+  <si>
+    <t>Auxiliary Register Group C</t>
+  </si>
+  <si>
+    <t>Auxiliary Register Group D</t>
+  </si>
+  <si>
+    <t>G9V[7]</t>
+  </si>
+  <si>
+    <t>G9V[6]</t>
+  </si>
+  <si>
+    <t>G9V[5]</t>
+  </si>
+  <si>
+    <t>G9V[4]</t>
+  </si>
+  <si>
+    <t>G9V[3]</t>
+  </si>
+  <si>
+    <t>G9V[2]</t>
+  </si>
+  <si>
+    <t>G9V[1]</t>
+  </si>
+  <si>
+    <t>G9V[0]</t>
+  </si>
+  <si>
+    <t>G9V[15]</t>
+  </si>
+  <si>
+    <t>G9V[14]</t>
+  </si>
+  <si>
+    <t>G9V[13]</t>
+  </si>
+  <si>
+    <t>G9V[12]</t>
+  </si>
+  <si>
+    <t>G9V[11]</t>
+  </si>
+  <si>
+    <t>G9V[10]</t>
+  </si>
+  <si>
+    <t>G9V[9]</t>
+  </si>
+  <si>
+    <t>G9V[8]</t>
+  </si>
+  <si>
+    <t>RSVD1</t>
+  </si>
+  <si>
+    <t>C16OV</t>
+  </si>
+  <si>
+    <t>C16UV</t>
+  </si>
+  <si>
+    <t>C15OV</t>
+  </si>
+  <si>
+    <t>C15UV</t>
+  </si>
+  <si>
+    <t>C14OV</t>
+  </si>
+  <si>
+    <t>C14UV</t>
+  </si>
+  <si>
+    <t>C13OV</t>
+  </si>
+  <si>
+    <t>C13UV</t>
+  </si>
+  <si>
+    <t>C18OV</t>
+  </si>
+  <si>
+    <t>C18UV</t>
+  </si>
+  <si>
+    <t>C17OV</t>
+  </si>
+  <si>
+    <t>C17UV</t>
+  </si>
+  <si>
+    <t>Reads auxiliary register group A</t>
+  </si>
+  <si>
+    <t>RDAUXA</t>
+  </si>
+  <si>
+    <t>0x000C</t>
+  </si>
+  <si>
+    <t>RDAUXC</t>
+  </si>
+  <si>
+    <t>Reads auxiliary register group C</t>
+  </si>
+  <si>
+    <t>0x000D</t>
+  </si>
+  <si>
+    <t>RDAUXD</t>
+  </si>
+  <si>
+    <t>0x000F</t>
   </si>
   <si>
     <t>ADCV</t>
   </si>
   <si>
-    <r>
-      <t>Selects digital redundancy path (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>0x0360</t>
+    <t>0x0370</t>
+  </si>
+  <si>
+    <t>0x0500</t>
+  </si>
+  <si>
+    <t>ADAXD</t>
+  </si>
+  <si>
+    <t>ADSTATD</t>
+  </si>
+  <si>
+    <t>0x0508</t>
+  </si>
+  <si>
+    <t>0x0347</t>
+  </si>
+  <si>
+    <t>GPIO &amp; VREF2 measurement</t>
+  </si>
+  <si>
+    <t>Reads auxiliary register group D</t>
   </si>
 </sst>
 </file>
@@ -2741,7 +2523,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2762,17 +2544,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2805,7 +2576,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3092,10 +2865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O125"/>
+  <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3128,7 +2901,7 @@
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
       <c r="L1" s="12" t="s">
-        <v>694</v>
+        <v>486</v>
       </c>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
@@ -3210,16 +2983,16 @@
         <v>23</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>669</v>
+        <v>461</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>670</v>
+        <v>462</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>671</v>
+        <v>463</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>672</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -3254,16 +3027,16 @@
         <v>39</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>673</v>
+        <v>465</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>674</v>
+        <v>466</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>684</v>
+        <v>476</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>675</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -3298,16 +3071,16 @@
         <v>47</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>695</v>
+        <v>487</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>703</v>
+        <v>496</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>676</v>
+        <v>468</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>677</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -3342,16 +3115,16 @@
         <v>55</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>678</v>
+        <v>470</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>679</v>
+        <v>471</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>681</v>
+        <v>473</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>680</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -3386,16 +3159,16 @@
         <v>63</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>683</v>
+        <v>475</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>682</v>
+        <v>474</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -3430,30 +3203,30 @@
         <v>64</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>686</v>
+        <v>478</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>687</v>
+        <v>479</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L9" s="1" t="s">
-        <v>688</v>
+        <v>480</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>689</v>
+        <v>481</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>690</v>
+        <v>482</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>691</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -3470,13 +3243,13 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="L10" s="1" t="s">
-        <v>692</v>
+        <v>484</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>693</v>
+        <v>485</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>737</v>
+        <v>530</v>
       </c>
       <c r="O10" s="13"/>
     </row>
@@ -3515,13 +3288,13 @@
         <v>72</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>696</v>
+        <v>488</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>697</v>
+        <v>489</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>698</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -3559,13 +3332,13 @@
         <v>73</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>699</v>
+        <v>491</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>700</v>
+        <v>492</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>701</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -3600,13 +3373,13 @@
         <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>702</v>
+        <v>494</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>870</v>
+        <v>495</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>737</v>
+        <v>530</v>
       </c>
       <c r="O13" s="13"/>
     </row>
@@ -3645,13 +3418,13 @@
         <v>74</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>704</v>
+        <v>497</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>705</v>
+        <v>498</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>706</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -3686,16 +3459,16 @@
         <v>75</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>707</v>
+        <v>500</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>708</v>
+        <v>501</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -3730,16 +3503,16 @@
         <v>75</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>709</v>
+        <v>502</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>710</v>
+        <v>503</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -3774,30 +3547,30 @@
         <v>75</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>711</v>
+        <v>504</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>712</v>
+        <v>505</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L18" s="7" t="s">
-        <v>713</v>
+        <v>506</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>714</v>
+        <v>507</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -3814,16 +3587,16 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="L19" s="7" t="s">
-        <v>715</v>
+        <v>508</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>716</v>
+        <v>509</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -3858,16 +3631,16 @@
         <v>9</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>717</v>
+        <v>510</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>718</v>
+        <v>511</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>719</v>
+        <v>512</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>720</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -3902,16 +3675,16 @@
         <v>110</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>721</v>
+        <v>514</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>722</v>
+        <v>515</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>723</v>
+        <v>516</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>724</v>
+        <v>517</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -3946,16 +3719,16 @@
         <v>122</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>725</v>
+        <v>518</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>726</v>
+        <v>519</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -3990,16 +3763,16 @@
         <v>133</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>501</v>
+        <v>403</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>727</v>
+        <v>520</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -4034,16 +3807,16 @@
         <v>140</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>502</v>
+        <v>404</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>813</v>
+        <v>582</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>728</v>
+        <v>521</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>729</v>
+        <v>522</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -4078,16 +3851,16 @@
         <v>147</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>503</v>
+        <v>405</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>730</v>
+        <v>523</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>731</v>
+        <v>524</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>732</v>
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -4119,28 +3892,28 @@
         <v>153</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>866</v>
+        <v>629</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>733</v>
+        <v>526</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>734</v>
+        <v>527</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>737</v>
+        <v>530</v>
       </c>
       <c r="O26" s="13"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L27" s="7" t="s">
-        <v>735</v>
+        <v>528</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>736</v>
+        <v>529</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>737</v>
+        <v>530</v>
       </c>
       <c r="O27" s="13"/>
     </row>
@@ -5028,34 +4801,34 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
@@ -5064,34 +4837,34 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>97</v>
+        <v>299</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
@@ -5100,34 +4873,34 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>98</v>
+        <v>300</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
@@ -5136,34 +4909,34 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>99</v>
+        <v>301</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
@@ -5172,34 +4945,34 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>100</v>
+        <v>302</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
@@ -5208,34 +4981,34 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>101</v>
+        <v>303</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
@@ -5250,7 +5023,7 @@
     </row>
     <row r="64" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -5304,34 +5077,34 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>96</v>
+        <v>353</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
@@ -5340,34 +5113,34 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>97</v>
+        <v>354</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
@@ -5376,34 +5149,34 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>98</v>
+        <v>355</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
@@ -5412,34 +5185,34 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>99</v>
+        <v>356</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
@@ -5448,34 +5221,34 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
@@ -5484,34 +5257,34 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>101</v>
+        <v>358</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>392</v>
+        <v>581</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
@@ -5526,7 +5299,7 @@
     </row>
     <row r="73" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A73" s="12" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -5580,34 +5353,34 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>396</v>
+        <v>455</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
@@ -5616,34 +5389,34 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>397</v>
+        <v>456</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
@@ -5652,34 +5425,34 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>398</v>
+        <v>457</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
@@ -5688,34 +5461,34 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>399</v>
+        <v>458</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
@@ -5724,34 +5497,34 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>400</v>
+        <v>459</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
@@ -5760,34 +5533,34 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>401</v>
+        <v>460</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
@@ -5802,7 +5575,7 @@
     </row>
     <row r="82" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
-        <v>450</v>
+        <v>630</v>
       </c>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -5856,34 +5629,34 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>451</v>
+        <v>604</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>464</v>
+      <c r="C84" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>638</v>
       </c>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
@@ -5892,34 +5665,34 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>452</v>
+        <v>605</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>472</v>
+      <c r="C85" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>646</v>
       </c>
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
@@ -5928,34 +5701,34 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>453</v>
+        <v>606</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>480</v>
+      <c r="C86" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>654</v>
       </c>
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
@@ -5964,34 +5737,34 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>454</v>
+        <v>607</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>488</v>
+      <c r="C87" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>662</v>
       </c>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
@@ -6000,34 +5773,34 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>455</v>
+        <v>608</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>496</v>
+      <c r="C88" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>670</v>
       </c>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
@@ -6036,34 +5809,34 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>456</v>
+        <v>609</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>503</v>
+      <c r="C89" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>678</v>
       </c>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
@@ -6078,7 +5851,7 @@
     </row>
     <row r="91" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A91" s="12" t="s">
-        <v>504</v>
+        <v>603</v>
       </c>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -6132,34 +5905,34 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>505</v>
+        <v>604</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>518</v>
+        <v>102</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>686</v>
       </c>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
@@ -6168,34 +5941,34 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>506</v>
+        <v>605</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>526</v>
+        <v>102</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>694</v>
       </c>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
@@ -6204,34 +5977,34 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>507</v>
+        <v>606</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>534</v>
+        <v>102</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>702</v>
       </c>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
@@ -6240,34 +6013,34 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>508</v>
+        <v>607</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>542</v>
+        <v>102</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="J96" s="6" t="s">
+        <v>710</v>
       </c>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
@@ -6276,34 +6049,34 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>509</v>
+        <v>608</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>543</v>
+        <v>617</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>544</v>
+        <v>616</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>545</v>
+        <v>615</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>546</v>
+        <v>614</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>547</v>
+        <v>613</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>548</v>
+        <v>612</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>549</v>
+        <v>611</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>550</v>
+        <v>610</v>
       </c>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
@@ -6312,34 +6085,34 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>510</v>
+        <v>609</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>551</v>
+        <v>625</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>552</v>
+        <v>624</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>553</v>
+        <v>623</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>554</v>
+        <v>622</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>555</v>
+        <v>621</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>556</v>
+        <v>620</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>557</v>
+        <v>619</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>558</v>
+        <v>618</v>
       </c>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
@@ -6354,7 +6127,7 @@
     </row>
     <row r="100" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A100" s="12" t="s">
-        <v>559</v>
+        <v>759</v>
       </c>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -6408,34 +6181,34 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>573</v>
+        <v>102</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>718</v>
       </c>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
@@ -6444,37 +6217,34 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="K103" s="11" t="s">
-        <v>868</v>
+        <v>102</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>726</v>
       </c>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
@@ -6483,34 +6253,34 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>589</v>
+        <v>102</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>734</v>
       </c>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
@@ -6519,34 +6289,34 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>597</v>
+        <v>102</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="J105" s="6" t="s">
+        <v>742</v>
       </c>
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
@@ -6555,34 +6325,34 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>605</v>
+        <v>102</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>750</v>
       </c>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
@@ -6591,34 +6361,34 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>613</v>
+        <v>102</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>758</v>
       </c>
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
@@ -6633,7 +6403,7 @@
     </row>
     <row r="109" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A109" s="12" t="s">
-        <v>614</v>
+        <v>760</v>
       </c>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
@@ -6687,34 +6457,34 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>560</v>
+        <v>604</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>628</v>
+        <v>102</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>768</v>
       </c>
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
@@ -6723,436 +6493,196 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>561</v>
+        <v>605</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>636</v>
+        <v>102</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>562</v>
+        <v>606</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>644</v>
+        <v>102</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="H113" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="I113" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="J113" s="11" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>563</v>
+        <v>607</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>652</v>
+        <v>102</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="I114" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="J114" s="11" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>564</v>
+        <v>608</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>660</v>
+        <v>102</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="J115" s="6" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>565</v>
+        <v>609</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A118" s="12" t="s">
-        <v>838</v>
-      </c>
-      <c r="B118" s="12"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="12"/>
-      <c r="J118" s="12"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="B120" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C120" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="H120" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="I120" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="J120" s="6" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="F121" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="H121" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="I121" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="J121" s="6" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="H122" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="I122" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="J122" s="6" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="F123" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="G123" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="H123" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="I123" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="J123" s="6" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>854</v>
+      <c r="C116" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="J116" s="6" t="s">
+        <v>789</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A10:J10"/>
+  <mergeCells count="18">
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A82:J82"/>
+    <mergeCell ref="A64:J64"/>
     <mergeCell ref="N26:O26"/>
     <mergeCell ref="N27:O27"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A118:J118"/>
-    <mergeCell ref="A91:J91"/>
-    <mergeCell ref="A100:J100"/>
-    <mergeCell ref="A109:J109"/>
     <mergeCell ref="A28:J28"/>
     <mergeCell ref="A37:J37"/>
     <mergeCell ref="A46:J46"/>
     <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="A100:J100"/>
+    <mergeCell ref="A109:J109"/>
+    <mergeCell ref="A82:J82"/>
     <mergeCell ref="A73:J73"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C9167C-FF39-4CDD-9CC0-7BECFC76D55A}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7165,566 +6695,482 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>738</v>
+        <v>531</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>739</v>
+        <v>532</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>740</v>
+        <v>533</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>822</v>
+        <v>590</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>824</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>741</v>
+        <v>534</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>742</v>
+        <v>535</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>748</v>
+        <v>541</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>743</v>
+        <v>536</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>744</v>
+        <v>537</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>749</v>
+        <v>542</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>745</v>
+        <v>538</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>746</v>
+        <v>539</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>750</v>
+        <v>543</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>752</v>
+        <v>545</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>747</v>
+        <v>540</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>751</v>
+        <v>544</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>753</v>
+        <v>546</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>759</v>
+        <v>550</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>765</v>
+        <v>554</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>754</v>
+        <v>547</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>760</v>
+        <v>551</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>766</v>
+        <v>555</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>755</v>
+        <v>548</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>761</v>
+        <v>552</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>767</v>
+        <v>556</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>756</v>
+        <v>549</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>762</v>
+        <v>553</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>768</v>
+        <v>557</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>757</v>
+        <v>560</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>763</v>
+        <v>558</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>769</v>
+        <v>562</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>758</v>
+        <v>561</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>764</v>
+        <v>559</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>770</v>
+        <v>563</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>773</v>
+        <v>791</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>771</v>
+        <v>790</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>774</v>
+        <v>627</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>772</v>
+        <v>626</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>776</v>
+        <v>628</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>864</v>
+        <v>793</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>863</v>
+        <v>794</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>865</v>
+        <v>795</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>778</v>
+        <v>796</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>777</v>
+        <v>806</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>781</v>
+        <v>565</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>779</v>
+        <v>564</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>790</v>
+        <v>568</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>782</v>
+        <v>567</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>780</v>
+        <v>566</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>791</v>
+        <v>569</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>786</v>
+      <c r="A18" s="10" t="s">
+        <v>570</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>783</v>
+        <v>572</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>792</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>685</v>
+        <v>589</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>787</v>
+      <c r="A19" s="10" t="s">
+        <v>573</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>784</v>
+        <v>575</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>793</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>685</v>
+        <v>593</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>788</v>
+      <c r="A20" s="10" t="s">
+        <v>802</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>785</v>
+        <v>588</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>797</v>
+      <c r="A22" s="10" t="s">
+        <v>574</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>798</v>
+        <v>576</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>799</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>685</v>
+        <v>596</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>803</v>
+        <v>571</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>821</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>823</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>826</v>
+        <v>799</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>804</v>
+      <c r="A24" s="1" t="s">
+        <v>577</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>806</v>
+        <v>578</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>825</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>867</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>827</v>
+        <v>598</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>819</v>
+      <c r="A25" s="1" t="s">
+        <v>579</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>820</v>
+        <v>580</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>828</v>
+        <v>599</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>836</v>
+        <v>583</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>862</v>
+        <v>584</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>837</v>
+        <v>600</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>805</v>
+      <c r="A27" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>807</v>
+        <v>586</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>829</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>830</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>827</v>
+        <v>601</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>869</v>
+        <v>585</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>801</v>
+        <v>587</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>871</v>
+        <v>602</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>831</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>832</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>833</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>834</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>835</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>685</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LTC6813/LTC6813 Summary.xlsx
+++ b/LTC6813/LTC6813 Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Documents\WFR\Custom BMS\Custom-BMS_25\LTC6813\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2911D511-01D5-4F42-9E26-140B79AFC4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C47A6E-BB1A-4F84-9DCB-1447323FDA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registers" sheetId="1" r:id="rId1"/>
@@ -2867,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="M107" sqref="M107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6653,6 +6653,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="A100:J100"/>
+    <mergeCell ref="A109:J109"/>
+    <mergeCell ref="A82:J82"/>
+    <mergeCell ref="A73:J73"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="A19:J19"/>
     <mergeCell ref="A64:J64"/>
@@ -6666,11 +6671,6 @@
     <mergeCell ref="A55:J55"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A91:J91"/>
-    <mergeCell ref="A100:J100"/>
-    <mergeCell ref="A109:J109"/>
-    <mergeCell ref="A82:J82"/>
-    <mergeCell ref="A73:J73"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6681,8 +6681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C9167C-FF39-4CDD-9CC0-7BECFC76D55A}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/LTC6813/LTC6813 Summary.xlsx
+++ b/LTC6813/LTC6813 Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Documents\WFR\Custom BMS\Custom-BMS_25\LTC6813\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C47A6E-BB1A-4F84-9DCB-1447323FDA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57B72D1-30CA-4962-8198-C72DE68FCC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registers" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="813">
   <si>
     <t>Register</t>
   </si>
@@ -2470,6 +2470,24 @@
   </si>
   <si>
     <t>Reads auxiliary register group D</t>
+  </si>
+  <si>
+    <t>Aux register diagnostic</t>
+  </si>
+  <si>
+    <t>AXST</t>
+  </si>
+  <si>
+    <t>ADOL</t>
+  </si>
+  <si>
+    <t>Overlap cell measurement diagnostic</t>
+  </si>
+  <si>
+    <t>AXOW</t>
+  </si>
+  <si>
+    <t>Open circuit test on GPIO</t>
   </si>
 </sst>
 </file>
@@ -2867,7 +2885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="M107" sqref="M107"/>
     </sheetView>
   </sheetViews>
@@ -6653,11 +6671,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A91:J91"/>
-    <mergeCell ref="A100:J100"/>
-    <mergeCell ref="A109:J109"/>
-    <mergeCell ref="A82:J82"/>
-    <mergeCell ref="A73:J73"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="A19:J19"/>
     <mergeCell ref="A64:J64"/>
@@ -6671,6 +6684,11 @@
     <mergeCell ref="A55:J55"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="A100:J100"/>
+    <mergeCell ref="A109:J109"/>
+    <mergeCell ref="A82:J82"/>
+    <mergeCell ref="A73:J73"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6679,10 +6697,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C9167C-FF39-4CDD-9CC0-7BECFC76D55A}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6984,64 +7002,58 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>570</v>
+        <v>811</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>594</v>
-      </c>
+        <v>812</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>804</v>
+        <v>591</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>802</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>803</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>800</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>477</v>
@@ -7052,30 +7064,24 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>574</v>
+        <v>809</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>597</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>595</v>
-      </c>
+        <v>810</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>798</v>
+      <c r="A23" s="10" t="s">
+        <v>808</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>571</v>
+        <v>807</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>477</v>
@@ -7085,31 +7091,31 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>577</v>
+      <c r="A24" s="10" t="s">
+        <v>574</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>477</v>
+        <v>596</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>579</v>
+        <v>801</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>580</v>
+        <v>805</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>599</v>
+        <v>800</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>477</v>
@@ -7119,14 +7125,14 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>583</v>
+      <c r="A26" s="1" t="s">
+        <v>798</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>600</v>
+        <v>799</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>477</v>
@@ -7137,13 +7143,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>577</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>477</v>
@@ -7154,18 +7160,69 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>477</v>
       </c>
       <c r="E28" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>477</v>
       </c>
     </row>

--- a/LTC6813/LTC6813 Summary.xlsx
+++ b/LTC6813/LTC6813 Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Documents\WFR\Custom BMS\Custom-BMS_25\LTC6813\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57B72D1-30CA-4962-8198-C72DE68FCC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96226D6C-5B3A-4CBC-BC2C-19D9E8608A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registers" sheetId="1" r:id="rId1"/>
@@ -2885,8 +2885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="M107" sqref="M107"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="L95" sqref="L95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6072,28 +6072,28 @@
       <c r="B97" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G97" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="H97" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="I97" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="J97" s="1" t="s">
+      <c r="J97" s="6" t="s">
         <v>610</v>
       </c>
       <c r="L97" s="4"/>
@@ -6108,28 +6108,28 @@
       <c r="B98" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F98" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G98" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="H98" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="I98" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="J98" s="1" t="s">
+      <c r="J98" s="6" t="s">
         <v>618</v>
       </c>
       <c r="L98" s="4"/>
@@ -6671,6 +6671,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="A100:J100"/>
+    <mergeCell ref="A109:J109"/>
+    <mergeCell ref="A82:J82"/>
+    <mergeCell ref="A73:J73"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="A19:J19"/>
     <mergeCell ref="A64:J64"/>
@@ -6684,11 +6689,6 @@
     <mergeCell ref="A55:J55"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A91:J91"/>
-    <mergeCell ref="A100:J100"/>
-    <mergeCell ref="A109:J109"/>
-    <mergeCell ref="A82:J82"/>
-    <mergeCell ref="A73:J73"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6699,8 +6699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C9167C-FF39-4CDD-9CC0-7BECFC76D55A}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/LTC6813/LTC6813 Summary.xlsx
+++ b/LTC6813/LTC6813 Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Documents\WFR\Custom BMS\Custom-BMS_25\LTC6813\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96226D6C-5B3A-4CBC-BC2C-19D9E8608A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC79CD4-1E2A-4FCF-A917-896112B3CB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registers" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="816">
   <si>
     <t>Register</t>
   </si>
@@ -2488,6 +2488,15 @@
   </si>
   <si>
     <t>Open circuit test on GPIO</t>
+  </si>
+  <si>
+    <t>CLRAUX</t>
+  </si>
+  <si>
+    <t>0x0712</t>
+  </si>
+  <si>
+    <t>Clears aux register groups</t>
   </si>
 </sst>
 </file>
@@ -2885,8 +2894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="L95" sqref="L95"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6671,11 +6680,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A91:J91"/>
-    <mergeCell ref="A100:J100"/>
-    <mergeCell ref="A109:J109"/>
-    <mergeCell ref="A82:J82"/>
-    <mergeCell ref="A73:J73"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="A19:J19"/>
     <mergeCell ref="A64:J64"/>
@@ -6689,6 +6693,11 @@
     <mergeCell ref="A55:J55"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="A100:J100"/>
+    <mergeCell ref="A109:J109"/>
+    <mergeCell ref="A82:J82"/>
+    <mergeCell ref="A73:J73"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6697,10 +6706,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C9167C-FF39-4CDD-9CC0-7BECFC76D55A}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7160,13 +7169,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>579</v>
+        <v>813</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>580</v>
+        <v>815</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>599</v>
+        <v>814</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>477</v>
@@ -7176,14 +7185,14 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>583</v>
+      <c r="A29" s="1" t="s">
+        <v>579</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>477</v>
@@ -7193,14 +7202,14 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>72</v>
+      <c r="A30" s="10" t="s">
+        <v>583</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>477</v>
@@ -7211,18 +7220,35 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>585</v>
+        <v>72</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>477</v>
       </c>
       <c r="E31" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>477</v>
       </c>
     </row>
